--- a/manuals/nearest_neighbour/refs/grades.xlsx
+++ b/manuals/nearest_neighbour/refs/grades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="158">
   <si>
     <t>S.No.</t>
   </si>
@@ -28,103 +28,460 @@
     <t>Grades</t>
   </si>
   <si>
-    <t>EE15B19M000002</t>
-  </si>
-  <si>
-    <t>EE15BTECH11003</t>
-  </si>
-  <si>
-    <t>EE15BTECH11008</t>
-  </si>
-  <si>
-    <t>EE15BTECH11032</t>
-  </si>
-  <si>
-    <t>EE16BTECH11011</t>
-  </si>
-  <si>
-    <t>EE16BTECH11014</t>
-  </si>
-  <si>
-    <t>EE16BTECH11019</t>
-  </si>
-  <si>
-    <t>EE16BTECH11022</t>
-  </si>
-  <si>
-    <t>EE16BTECH11023</t>
-  </si>
-  <si>
-    <t>EE16BTECH11040</t>
-  </si>
-  <si>
-    <t>EE18ACMTECH11006</t>
-  </si>
-  <si>
-    <t>EE18MTECH11001</t>
-  </si>
-  <si>
-    <t>EE18MTECH11002</t>
-  </si>
-  <si>
-    <t>EE18MTECH11007</t>
-  </si>
-  <si>
-    <t>EE18MTECH11015</t>
-  </si>
-  <si>
-    <t>EE18MTECH11016</t>
-  </si>
-  <si>
-    <t>EE18MTECH11017</t>
-  </si>
-  <si>
-    <t>EE19MTECH01008</t>
-  </si>
-  <si>
-    <t>ES15BTECH11009</t>
-  </si>
-  <si>
-    <t>ES16BTECH11021</t>
-  </si>
-  <si>
-    <t>MA17BTECH11001</t>
-  </si>
-  <si>
-    <t>MA17BTECH11002</t>
+    <t>CE17BTECH11019</t>
+  </si>
+  <si>
+    <t>CH17BTECH11033</t>
+  </si>
+  <si>
+    <t>CS17BTECH11036</t>
+  </si>
+  <si>
+    <t>CS17BTECH11040</t>
+  </si>
+  <si>
+    <t>CS17BTECH11047</t>
+  </si>
+  <si>
+    <t>CS17BTECH11048</t>
+  </si>
+  <si>
+    <t>CS18BTECH11048</t>
+  </si>
+  <si>
+    <t>CS18BTECH11049</t>
+  </si>
+  <si>
+    <t>EE17BTECH11001</t>
+  </si>
+  <si>
+    <t>EE17BTECH11002</t>
+  </si>
+  <si>
+    <t>EE17BTECH11003</t>
+  </si>
+  <si>
+    <t>EE17BTECH11004</t>
+  </si>
+  <si>
+    <t>EE17BTECH11005</t>
+  </si>
+  <si>
+    <t>EE17BTECH11006</t>
+  </si>
+  <si>
+    <t>EE17BTECH11007</t>
+  </si>
+  <si>
+    <t>EE17BTECH11008</t>
+  </si>
+  <si>
+    <t>EE17BTECH11009</t>
+  </si>
+  <si>
+    <t>EE17BTECH11010</t>
+  </si>
+  <si>
+    <t>EE17BTECH11011</t>
+  </si>
+  <si>
+    <t>EE17BTECH11012</t>
+  </si>
+  <si>
+    <t>EE17BTECH11013</t>
+  </si>
+  <si>
+    <t>EE17BTECH11014</t>
+  </si>
+  <si>
+    <t>EE17BTECH11015</t>
+  </si>
+  <si>
+    <t>EE17BTECH11016</t>
+  </si>
+  <si>
+    <t>EE17BTECH11017</t>
+  </si>
+  <si>
+    <t>EE17BTECH11018</t>
+  </si>
+  <si>
+    <t>EE17BTECH11019</t>
+  </si>
+  <si>
+    <t>EE17BTECH11020</t>
+  </si>
+  <si>
+    <t>EE17BTECH11021</t>
+  </si>
+  <si>
+    <t>EE17BTECH11022</t>
+  </si>
+  <si>
+    <t>EE17BTECH11023</t>
+  </si>
+  <si>
+    <t>EE17BTECH11024</t>
+  </si>
+  <si>
+    <t>EE17BTECH11025</t>
+  </si>
+  <si>
+    <t>EE17BTECH11026</t>
+  </si>
+  <si>
+    <t>EE17BTECH11027</t>
+  </si>
+  <si>
+    <t>EE17BTECH11028</t>
+  </si>
+  <si>
+    <t>EE17BTECH11029</t>
+  </si>
+  <si>
+    <t>EE17BTECH11030</t>
+  </si>
+  <si>
+    <t>EE17BTECH11031</t>
+  </si>
+  <si>
+    <t>EE17BTECH11032</t>
+  </si>
+  <si>
+    <t>EE17BTECH11033</t>
+  </si>
+  <si>
+    <t>EE17BTECH11034</t>
+  </si>
+  <si>
+    <t>EE17BTECH11035</t>
+  </si>
+  <si>
+    <t>EE17BTECH11036</t>
+  </si>
+  <si>
+    <t>EE17BTECH11037</t>
+  </si>
+  <si>
+    <t>EE17BTECH11038</t>
+  </si>
+  <si>
+    <t>EE17BTECH11039</t>
+  </si>
+  <si>
+    <t>EE17BTECH11040</t>
+  </si>
+  <si>
+    <t>EE17BTECH11041</t>
+  </si>
+  <si>
+    <t>EE17BTECH11042</t>
+  </si>
+  <si>
+    <t>EE17BTECH11043</t>
+  </si>
+  <si>
+    <t>EE17BTECH11044</t>
+  </si>
+  <si>
+    <t>EE17BTECH11045</t>
+  </si>
+  <si>
+    <t>EE17BTECH11046</t>
+  </si>
+  <si>
+    <t>EE17BTECH11047</t>
+  </si>
+  <si>
+    <t>EE17BTECH11048</t>
+  </si>
+  <si>
+    <t>EE17BTECH11049</t>
+  </si>
+  <si>
+    <t>EE17BTECH11050</t>
+  </si>
+  <si>
+    <t>EE17BTECH11051</t>
+  </si>
+  <si>
+    <t>EE18BTECH11001</t>
+  </si>
+  <si>
+    <t>EE18BTECH11002</t>
+  </si>
+  <si>
+    <t>EE18BTECH11003</t>
+  </si>
+  <si>
+    <t>EE18BTECH11004</t>
+  </si>
+  <si>
+    <t>EE18BTECH11005</t>
+  </si>
+  <si>
+    <t>EE18BTECH11006</t>
+  </si>
+  <si>
+    <t>EE18BTECH11007</t>
+  </si>
+  <si>
+    <t>EE18BTECH11008</t>
+  </si>
+  <si>
+    <t>EE18BTECH11009</t>
+  </si>
+  <si>
+    <t>EE18BTECH11010</t>
+  </si>
+  <si>
+    <t>EE18BTECH11011</t>
+  </si>
+  <si>
+    <t>EE18BTECH11012</t>
+  </si>
+  <si>
+    <t>EE18BTECH11013</t>
+  </si>
+  <si>
+    <t>EE18BTECH11014</t>
+  </si>
+  <si>
+    <t>EE18BTECH11015</t>
+  </si>
+  <si>
+    <t>EE18BTECH11016</t>
+  </si>
+  <si>
+    <t>EE18BTECH11017</t>
+  </si>
+  <si>
+    <t>EE18BTECH11018</t>
+  </si>
+  <si>
+    <t>EE18BTECH11019</t>
+  </si>
+  <si>
+    <t>EE18BTECH11020</t>
+  </si>
+  <si>
+    <t>EE18BTECH11021</t>
+  </si>
+  <si>
+    <t>EE18BTECH11022</t>
+  </si>
+  <si>
+    <t>EE18BTECH11023</t>
+  </si>
+  <si>
+    <t>EE18BTECH11024</t>
+  </si>
+  <si>
+    <t>EE18BTECH11025</t>
+  </si>
+  <si>
+    <t>EE18BTECH11026</t>
+  </si>
+  <si>
+    <t>EE18BTECH11027</t>
+  </si>
+  <si>
+    <t>EE18BTECH11028</t>
+  </si>
+  <si>
+    <t>EE18BTECH11029</t>
+  </si>
+  <si>
+    <t>EE18BTECH11030</t>
+  </si>
+  <si>
+    <t>EE18BTECH11031</t>
+  </si>
+  <si>
+    <t>EE18BTECH11032</t>
+  </si>
+  <si>
+    <t>EE18BTECH11033</t>
+  </si>
+  <si>
+    <t>EE18BTECH11034</t>
+  </si>
+  <si>
+    <t>EE18BTECH11035</t>
+  </si>
+  <si>
+    <t>EE18BTECH11036</t>
+  </si>
+  <si>
+    <t>EE18BTECH11037</t>
+  </si>
+  <si>
+    <t>EE18BTECH11038</t>
+  </si>
+  <si>
+    <t>EE18BTECH11039</t>
+  </si>
+  <si>
+    <t>EE18BTECH11040</t>
+  </si>
+  <si>
+    <t>EE18BTECH11041</t>
+  </si>
+  <si>
+    <t>EE18BTECH11042</t>
+  </si>
+  <si>
+    <t>EE18BTECH11043</t>
+  </si>
+  <si>
+    <t>EE18BTECH11044</t>
+  </si>
+  <si>
+    <t>EE18BTECH11045</t>
+  </si>
+  <si>
+    <t>EE18BTECH11046</t>
+  </si>
+  <si>
+    <t>EE18BTECH11047</t>
+  </si>
+  <si>
+    <t>EE18BTECH11048</t>
+  </si>
+  <si>
+    <t>EE18BTECH11049</t>
+  </si>
+  <si>
+    <t>EE18BTECH11050</t>
+  </si>
+  <si>
+    <t>EE18BTECH11051</t>
+  </si>
+  <si>
+    <t>EE18BTECH11052</t>
+  </si>
+  <si>
+    <t>EP15BTECH11010</t>
+  </si>
+  <si>
+    <t>EP17BTECH11001</t>
+  </si>
+  <si>
+    <t>EP17BTECH11002</t>
+  </si>
+  <si>
+    <t>EP17BTECH11003</t>
+  </si>
+  <si>
+    <t>EP17BTECH11004</t>
+  </si>
+  <si>
+    <t>EP17BTECH11005</t>
+  </si>
+  <si>
+    <t>EP17BTECH11006</t>
+  </si>
+  <si>
+    <t>EP17BTECH11007</t>
+  </si>
+  <si>
+    <t>EP17BTECH11008</t>
+  </si>
+  <si>
+    <t>EP17BTECH11009</t>
+  </si>
+  <si>
+    <t>EP17BTECH11010</t>
+  </si>
+  <si>
+    <t>EP17BTECH11012</t>
+  </si>
+  <si>
+    <t>EP17BTECH11013</t>
+  </si>
+  <si>
+    <t>EP17BTECH11014</t>
+  </si>
+  <si>
+    <t>EP17BTECH11016</t>
+  </si>
+  <si>
+    <t>EP17BTECH11017</t>
+  </si>
+  <si>
+    <t>EP17BTECH11018</t>
+  </si>
+  <si>
+    <t>EP17BTECH11019</t>
+  </si>
+  <si>
+    <t>EP17BTECH11020</t>
+  </si>
+  <si>
+    <t>ES16BTECH11015</t>
+  </si>
+  <si>
+    <t>ES17BTECH11024</t>
+  </si>
+  <si>
+    <t>ES17BTECH11025</t>
+  </si>
+  <si>
+    <t>ES17BTECH11026</t>
+  </si>
+  <si>
+    <t>ES17BTECH11028</t>
+  </si>
+  <si>
+    <t>ES18BTECH11027</t>
   </si>
   <si>
     <t>MA17BTECH11003</t>
   </si>
   <si>
-    <t>MA17BTECH11004</t>
-  </si>
-  <si>
-    <t>MA17BTECH11005</t>
-  </si>
-  <si>
     <t>MA17BTECH11006</t>
   </si>
   <si>
-    <t>MA17BTECH11007</t>
-  </si>
-  <si>
-    <t>MA17BTECH11008</t>
-  </si>
-  <si>
     <t>MA17BTECH11009</t>
   </si>
   <si>
-    <t>MA17BTECH11010</t>
+    <t>MA18BTECH11003</t>
+  </si>
+  <si>
+    <t>ME17BTECH11004</t>
+  </si>
+  <si>
+    <t>ME17BTECH11037</t>
+  </si>
+  <si>
+    <t>ME17BTECH11038</t>
+  </si>
+  <si>
+    <t>ME17BTECH11040</t>
+  </si>
+  <si>
+    <t>ME17BTECH11046</t>
+  </si>
+  <si>
+    <t>ME18BTECH11035</t>
+  </si>
+  <si>
+    <t>ME18BTECH11052</t>
+  </si>
+  <si>
+    <t>MS18BTECH11015</t>
+  </si>
+  <si>
+    <t>MS18BTECH11017</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>B-</t>
+  </si>
+  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>B-</t>
   </si>
   <si>
     <t>A-</t>
@@ -488,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>76.7</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -530,10 +887,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>76.7</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -544,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>74.2</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -558,10 +915,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -572,10 +929,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>68.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -586,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>73.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -600,10 +957,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>72.59999999999999</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -614,10 +971,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>99.2</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -628,10 +985,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>99.2</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -642,10 +999,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>98.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -656,10 +1013,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>88.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -670,10 +1027,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -684,10 +1041,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>84.2</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -698,10 +1055,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>91.7</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -712,10 +1069,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>95.7</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -726,10 +1083,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>94.2</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -740,10 +1097,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>96.7</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -754,10 +1111,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>93.2</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -768,10 +1125,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>76.7</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -782,10 +1139,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>92.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -796,10 +1153,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>92.5</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -810,10 +1167,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>61.2</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -824,10 +1181,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -838,10 +1195,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -852,10 +1209,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>92.5</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -866,10 +1223,10 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>97.5</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -880,10 +1237,10 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>66.8</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -894,10 +1251,10 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>25.2</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -908,10 +1265,10 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -922,10 +1279,1676 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>86.5</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
+      </c>
+      <c r="C35">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>74</v>
+      </c>
+      <c r="D40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>74</v>
+      </c>
+      <c r="D45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>72</v>
+      </c>
+      <c r="D48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>80</v>
+      </c>
+      <c r="D53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>78</v>
+      </c>
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66">
+        <v>71</v>
+      </c>
+      <c r="D66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>64</v>
+      </c>
+      <c r="D68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72">
+        <v>82</v>
+      </c>
+      <c r="D72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73">
+        <v>56</v>
+      </c>
+      <c r="D73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75">
+        <v>64</v>
+      </c>
+      <c r="D75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76">
+        <v>83</v>
+      </c>
+      <c r="D76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77">
+        <v>69</v>
+      </c>
+      <c r="D77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78">
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79">
+        <v>67</v>
+      </c>
+      <c r="D79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80">
+        <v>46</v>
+      </c>
+      <c r="D80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81">
+        <v>86</v>
+      </c>
+      <c r="D81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82">
+        <v>64</v>
+      </c>
+      <c r="D82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85">
+        <v>70</v>
+      </c>
+      <c r="D85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86">
+        <v>83</v>
+      </c>
+      <c r="D86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87">
+        <v>70</v>
+      </c>
+      <c r="D87" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88">
+        <v>71</v>
+      </c>
+      <c r="D88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89">
+        <v>75</v>
+      </c>
+      <c r="D89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90">
+        <v>79</v>
+      </c>
+      <c r="D90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91">
+        <v>71</v>
+      </c>
+      <c r="D91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92">
+        <v>42</v>
+      </c>
+      <c r="D92" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94">
+        <v>74</v>
+      </c>
+      <c r="D94" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95">
+        <v>74</v>
+      </c>
+      <c r="D95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96">
+        <v>69</v>
+      </c>
+      <c r="D96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97">
+        <v>74</v>
+      </c>
+      <c r="D97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98">
+        <v>69</v>
+      </c>
+      <c r="D98" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99">
+        <v>85</v>
+      </c>
+      <c r="D99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100">
+        <v>64</v>
+      </c>
+      <c r="D100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101">
+        <v>73</v>
+      </c>
+      <c r="D101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102">
+        <v>77</v>
+      </c>
+      <c r="D102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103">
+        <v>65</v>
+      </c>
+      <c r="D103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105">
+        <v>67</v>
+      </c>
+      <c r="D105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106">
+        <v>66</v>
+      </c>
+      <c r="D106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107">
+        <v>69</v>
+      </c>
+      <c r="D107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108">
+        <v>67</v>
+      </c>
+      <c r="D108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109">
+        <v>75</v>
+      </c>
+      <c r="D109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110">
+        <v>70</v>
+      </c>
+      <c r="D110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111">
+        <v>75</v>
+      </c>
+      <c r="D111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112">
+        <v>69</v>
+      </c>
+      <c r="D112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113">
+        <v>86</v>
+      </c>
+      <c r="D113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114">
+        <v>80</v>
+      </c>
+      <c r="D114" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115">
+        <v>77</v>
+      </c>
+      <c r="D115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116">
+        <v>74</v>
+      </c>
+      <c r="D116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118">
+        <v>76</v>
+      </c>
+      <c r="D118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119">
+        <v>62</v>
+      </c>
+      <c r="D119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120">
+        <v>85</v>
+      </c>
+      <c r="D120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121">
+        <v>74</v>
+      </c>
+      <c r="D121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122">
+        <v>45</v>
+      </c>
+      <c r="D122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123">
+        <v>73</v>
+      </c>
+      <c r="D123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124">
+        <v>56</v>
+      </c>
+      <c r="D124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125">
+        <v>45</v>
+      </c>
+      <c r="D125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126">
+        <v>60</v>
+      </c>
+      <c r="D126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127">
+        <v>78</v>
+      </c>
+      <c r="D127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128">
+        <v>72</v>
+      </c>
+      <c r="D128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129">
+        <v>69</v>
+      </c>
+      <c r="D129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130">
+        <v>60</v>
+      </c>
+      <c r="D130" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131">
+        <v>62</v>
+      </c>
+      <c r="D131" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132">
+        <v>41</v>
+      </c>
+      <c r="D132" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133">
+        <v>54</v>
+      </c>
+      <c r="D133" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134">
+        <v>69</v>
+      </c>
+      <c r="D134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135">
+        <v>76</v>
+      </c>
+      <c r="D135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136">
+        <v>75</v>
+      </c>
+      <c r="D136" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137">
+        <v>60</v>
+      </c>
+      <c r="D137" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138">
+        <v>90</v>
+      </c>
+      <c r="D138" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139">
+        <v>80</v>
+      </c>
+      <c r="D139" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140">
+        <v>79</v>
+      </c>
+      <c r="D140" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141">
+        <v>65</v>
+      </c>
+      <c r="D141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142">
+        <v>64</v>
+      </c>
+      <c r="D142" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143">
+        <v>66</v>
+      </c>
+      <c r="D143" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144">
+        <v>71</v>
+      </c>
+      <c r="D144" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145">
+        <v>69</v>
+      </c>
+      <c r="D145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147">
+        <v>59</v>
+      </c>
+      <c r="D147" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149">
+        <v>64</v>
+      </c>
+      <c r="D149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150">
+        <v>60</v>
+      </c>
+      <c r="D150" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
